--- a/aichan/547150392242615891_2021-07-14_11-02-58.xlsx
+++ b/aichan/547150392242615891_2021-07-14_11-02-58.xlsx
@@ -1312,7 +1312,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7938,7 +7938,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -10154,7 +10154,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11178,7 +11178,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11754,7 +11754,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -16652,7 +16652,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17098,7 +17098,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17323,7 +17323,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -17777,7 +17777,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -18373,7 +18373,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -20173,7 +20173,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -20319,7 +20319,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -21629,7 +21629,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -23044,7 +23044,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23399,7 +23399,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -23751,7 +23751,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -24112,7 +24112,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -25550,7 +25550,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -26581,7 +26581,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -27085,7 +27085,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -28673,7 +28673,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28955,7 +28955,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -30008,7 +30008,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -30899,7 +30899,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -31191,7 +31191,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31254,7 +31254,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -32001,7 +32001,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -32589,7 +32589,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -32727,7 +32727,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -32948,7 +32948,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -33395,7 +33395,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="I488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J488" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -36795,7 +36795,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -36941,7 +36941,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -37833,7 +37833,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -38418,7 +38418,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -39669,7 +39669,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -40099,7 +40099,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -41442,7 +41442,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -41510,7 +41510,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -42922,7 +42922,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -43387,7 +43387,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -44063,7 +44063,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -44344,7 +44344,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -46535,7 +46535,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -47496,7 +47496,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -50299,7 +50299,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -50445,7 +50445,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -50666,7 +50666,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K691" t="inlineStr">
@@ -51124,7 +51124,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -51475,7 +51475,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -52214,7 +52214,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K712" t="inlineStr">
@@ -52296,7 +52296,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K713" t="inlineStr">
@@ -52793,7 +52793,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K720" t="inlineStr">
@@ -53444,7 +53444,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K729" t="inlineStr">
@@ -53870,7 +53870,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K735" t="inlineStr">
@@ -57148,7 +57148,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K780" t="inlineStr">
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="I787" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J787" t="inlineStr">
         <is>
@@ -60772,7 +60772,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -61416,7 +61416,7 @@
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K839" t="inlineStr">
@@ -61642,7 +61642,7 @@
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K842" t="inlineStr">
@@ -61713,7 +61713,7 @@
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K843" t="inlineStr">
@@ -61930,7 +61930,7 @@
         </is>
       </c>
       <c r="I846" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J846" t="inlineStr">
         <is>
@@ -62448,7 +62448,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K853" t="inlineStr">
@@ -63254,7 +63254,7 @@
         </is>
       </c>
       <c r="I864" t="n">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="J864" t="inlineStr">
         <is>
@@ -66136,7 +66136,7 @@
         </is>
       </c>
       <c r="I903" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J903" t="inlineStr">
         <is>
@@ -68148,11 +68148,11 @@
         </is>
       </c>
       <c r="I930" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K930" t="inlineStr">
@@ -69047,11 +69047,11 @@
         </is>
       </c>
       <c r="I942" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K942" t="inlineStr">
@@ -70582,7 +70582,7 @@
         </is>
       </c>
       <c r="I962" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="J962" t="inlineStr">
         <is>
@@ -70658,7 +70658,7 @@
         </is>
       </c>
       <c r="I963" t="n">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="J963" t="inlineStr">
         <is>

--- a/aichan/547150392242615891_2021-07-14_11-02-58.xlsx
+++ b/aichan/547150392242615891_2021-07-14_11-02-58.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8230,7 +8230,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8538,7 +8538,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -9015,7 +9015,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -10296,7 +10296,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -12614,7 +12614,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -13112,7 +13112,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -14041,7 +14041,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14550,7 +14550,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -15740,7 +15740,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -17165,7 +17165,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -17769,7 +17769,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -20970,7 +20970,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -22377,7 +22377,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -24179,7 +24179,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -24384,7 +24384,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24593,7 +24593,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -24672,7 +24672,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -24956,7 +24956,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -25324,7 +25324,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25542,7 +25542,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -26281,7 +26281,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -28523,7 +28523,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28744,7 +28744,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28815,7 +28815,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -29097,7 +29097,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -29929,7 +29929,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -30004,7 +30004,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -30300,7 +30300,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -30674,7 +30674,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -31910,7 +31910,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -32068,7 +32068,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -32506,7 +32506,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -33612,7 +33612,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -33908,7 +33908,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -34271,7 +34271,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -34622,7 +34622,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -35285,7 +35285,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -35502,7 +35502,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -35802,7 +35802,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -36656,7 +36656,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -36719,7 +36719,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -37083,7 +37083,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -37150,7 +37150,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -37454,7 +37454,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -37817,7 +37817,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -37896,7 +37896,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -38192,7 +38192,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -39503,7 +39503,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -39582,7 +39582,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -39736,7 +39736,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -40099,7 +40099,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -40166,7 +40166,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -40384,7 +40384,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -41288,7 +41288,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -41652,7 +41652,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -41887,7 +41887,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -42093,7 +42093,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -42172,7 +42172,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -42316,7 +42316,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -42697,7 +42697,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -43454,7 +43454,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -44273,7 +44273,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -44636,7 +44636,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -44713,7 +44713,7 @@
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -44867,7 +44867,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -46084,7 +46084,7 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -46831,7 +46831,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -46981,7 +46981,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -47131,7 +47131,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -47483,7 +47483,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -47563,7 +47563,7 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -48137,7 +48137,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -48498,7 +48498,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -49357,7 +49357,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -49788,7 +49788,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -49867,7 +49867,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -50441,7 +50441,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -50587,7 +50587,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K690" t="inlineStr">
@@ -50808,7 +50808,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -51266,7 +51266,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -51617,7 +51617,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -52588,7 +52588,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K717" t="inlineStr">
@@ -54012,7 +54012,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K737" t="inlineStr">
@@ -54079,7 +54079,7 @@
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K738" t="inlineStr">
@@ -55250,7 +55250,7 @@
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -55965,7 +55965,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K764" t="inlineStr">
@@ -56621,7 +56621,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -56839,7 +56839,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K776" t="inlineStr">
@@ -57290,7 +57290,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K782" t="inlineStr">
@@ -58166,7 +58166,7 @@
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K794" t="inlineStr">
@@ -58969,7 +58969,7 @@
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K805" t="inlineStr">
@@ -59632,7 +59632,7 @@
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K814" t="inlineStr">
@@ -62076,7 +62076,7 @@
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K848" t="inlineStr">
@@ -63980,7 +63980,7 @@
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K874" t="inlineStr">
@@ -64564,7 +64564,7 @@
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
@@ -65646,7 +65646,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
@@ -66282,7 +66282,7 @@
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K905" t="inlineStr">
@@ -67041,7 +67041,7 @@
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
@@ -68294,7 +68294,7 @@
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K932" t="inlineStr">
@@ -69193,7 +69193,7 @@
       </c>
       <c r="J944" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K944" t="inlineStr">

--- a/aichan/547150392242615891_2021-07-14_11-02-58.xlsx
+++ b/aichan/547150392242615891_2021-07-14_11-02-58.xlsx
@@ -1387,7 +1387,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7002,7 +7002,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -10095,7 +10095,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -11173,7 +11173,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -13256,7 +13256,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13394,7 +13394,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -14183,7 +14183,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -15364,7 +15364,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15740,7 +15740,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16036,7 +16036,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -17090,7 +17090,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -17769,7 +17769,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -18440,7 +18440,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18945,7 +18945,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19635,7 +19635,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -20176,7 +20176,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -20315,7 +20315,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20667,7 +20667,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20898,7 +20898,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -21120,7 +21120,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -21264,7 +21264,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21704,7 +21704,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -21771,7 +21771,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -21846,7 +21846,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -22146,7 +22146,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -23403,7 +23403,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -24179,7 +24179,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -24254,7 +24254,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -24384,7 +24384,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24814,7 +24814,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -25245,7 +25245,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25399,7 +25399,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -26360,7 +26360,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26644,7 +26644,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -27453,7 +27453,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -27739,7 +27739,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -28448,7 +28448,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -29243,7 +29243,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -29385,7 +29385,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -29515,7 +29515,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -29929,7 +29929,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -30300,7 +30300,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -30749,7 +30749,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -30962,7 +30962,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -31262,7 +31262,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31756,7 +31756,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -32585,7 +32585,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -32869,7 +32869,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -33011,7 +33011,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33245,7 +33245,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -33683,7 +33683,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -33754,7 +33754,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -33908,7 +33908,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -34271,7 +34271,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -34622,7 +34622,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -34772,7 +34772,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -35285,7 +35285,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -35502,7 +35502,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -35802,7 +35802,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -36363,7 +36363,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -36656,7 +36656,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -36937,7 +36937,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -37083,7 +37083,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -38263,7 +38263,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -38343,7 +38343,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -39148,7 +39148,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -39736,7 +39736,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -40241,7 +40241,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -40384,7 +40384,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -40538,7 +40538,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -40694,7 +40694,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -41058,7 +41058,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -41288,7 +41288,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -41652,7 +41652,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -41887,7 +41887,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -42172,7 +42172,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -42316,7 +42316,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -43295,7 +43295,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -43454,7 +43454,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -46831,7 +46831,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -46981,7 +46981,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -47131,7 +47131,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -47483,7 +47483,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -48137,7 +48137,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -48498,7 +48498,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -49357,7 +49357,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -50441,7 +50441,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -50587,7 +50587,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K690" t="inlineStr">
@@ -50808,7 +50808,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -51266,7 +51266,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -51617,7 +51617,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -52718,7 +52718,7 @@
         </is>
       </c>
       <c r="I719" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J719" t="inlineStr">
         <is>
@@ -55250,7 +55250,7 @@
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -55965,7 +55965,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K764" t="inlineStr">
@@ -56621,7 +56621,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -56839,7 +56839,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K776" t="inlineStr">
@@ -57215,7 +57215,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K781" t="inlineStr">
@@ -57290,7 +57290,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K782" t="inlineStr">
@@ -58166,7 +58166,7 @@
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K794" t="inlineStr">
@@ -58969,7 +58969,7 @@
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K805" t="inlineStr">
@@ -59123,7 +59123,7 @@
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K807" t="inlineStr">
@@ -61269,7 +61269,7 @@
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K837" t="inlineStr">
@@ -61713,7 +61713,7 @@
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K843" t="inlineStr">
@@ -62230,7 +62230,7 @@
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K850" t="inlineStr">
@@ -62590,7 +62590,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K855" t="inlineStr">
@@ -63980,7 +63980,7 @@
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K874" t="inlineStr">
@@ -64130,7 +64130,7 @@
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K876" t="inlineStr">
@@ -65516,7 +65516,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
@@ -65872,7 +65872,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">

--- a/aichan/547150392242615891_2021-07-14_11-02-58.xlsx
+++ b/aichan/547150392242615891_2021-07-14_11-02-58.xlsx
@@ -826,7 +826,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8230,7 +8230,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -13112,7 +13112,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13256,7 +13256,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13394,7 +13394,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13970,7 +13970,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -15220,7 +15220,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15807,7 +15807,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -16186,7 +16186,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -17090,7 +17090,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -17315,7 +17315,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -17390,7 +17390,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17540,7 +17540,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17769,7 +17769,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -18215,7 +18215,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18290,7 +18290,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18740,7 +18740,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18807,7 +18807,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19577,7 +19577,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -20461,7 +20461,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20970,7 +20970,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21846,7 +21846,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -22146,7 +22146,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -22377,7 +22377,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -23403,7 +23403,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -24526,7 +24526,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24593,7 +24593,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -24672,7 +24672,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -24956,7 +24956,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -25245,7 +25245,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25324,7 +25324,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25542,7 +25542,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -26281,7 +26281,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -26360,7 +26360,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26510,7 +26510,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -27306,7 +27306,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27453,7 +27453,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -27739,7 +27739,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -28448,7 +28448,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -28523,7 +28523,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28744,7 +28744,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -29097,7 +29097,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -29243,7 +29243,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -29318,7 +29318,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29385,7 +29385,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -29515,7 +29515,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -29586,7 +29586,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29795,7 +29795,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -30004,7 +30004,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -30674,7 +30674,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -31262,7 +31262,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31396,7 +31396,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -31459,7 +31459,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -31756,7 +31756,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -31910,7 +31910,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -32068,7 +32068,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -32506,7 +32506,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -33011,7 +33011,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -34476,7 +34476,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -34555,7 +34555,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -34918,7 +34918,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -36074,7 +36074,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -36220,7 +36220,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -36296,7 +36296,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -36513,7 +36513,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -36719,7 +36719,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -37008,7 +37008,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -37083,7 +37083,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -37308,7 +37308,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -37533,7 +37533,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -37608,7 +37608,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -37750,7 +37750,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -37817,7 +37817,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -37896,7 +37896,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -38192,7 +38192,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -38635,7 +38635,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -38781,7 +38781,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -39002,7 +39002,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -39148,7 +39148,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -39582,7 +39582,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -39657,7 +39657,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -40099,7 +40099,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -40166,7 +40166,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -40538,7 +40538,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -40694,7 +40694,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -41058,7 +41058,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -41434,7 +41434,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -42093,7 +42093,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -42618,7 +42618,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -43295,7 +43295,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -43821,7 +43821,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -44126,7 +44126,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -44273,7 +44273,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -44561,7 +44561,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -44636,7 +44636,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -44867,7 +44867,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -45160,7 +45160,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -45452,7 +45452,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -45816,7 +45816,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -46084,7 +46084,7 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -46981,7 +46981,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -47056,7 +47056,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -47131,7 +47131,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -47483,7 +47483,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -47563,7 +47563,7 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -47994,7 +47994,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -48284,7 +48284,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -49128,7 +49128,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -49282,7 +49282,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -49357,7 +49357,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -49578,7 +49578,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -49716,7 +49716,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -49788,7 +49788,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -49946,7 +49946,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -50441,7 +50441,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -50587,7 +50587,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K690" t="inlineStr">
@@ -50808,7 +50808,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -50883,7 +50883,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -51187,7 +51187,7 @@
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K698" t="inlineStr">
@@ -51266,7 +51266,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -51617,7 +51617,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -51692,7 +51692,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -52277,7 +52277,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K713" t="inlineStr">
@@ -52356,7 +52356,7 @@
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K714" t="inlineStr">
@@ -52588,7 +52588,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K717" t="inlineStr">
@@ -52860,7 +52860,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K721" t="inlineStr">
@@ -52935,7 +52935,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K722" t="inlineStr">
@@ -53586,7 +53586,7 @@
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K731" t="inlineStr">
@@ -54604,7 +54604,7 @@
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K745" t="inlineStr">
@@ -54679,7 +54679,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K746" t="inlineStr">
@@ -55250,7 +55250,7 @@
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -55668,7 +55668,7 @@
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K760" t="inlineStr">
@@ -55965,7 +55965,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K764" t="inlineStr">
@@ -56036,7 +56036,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K765" t="inlineStr">
@@ -56621,7 +56621,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -56839,7 +56839,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K776" t="inlineStr">
@@ -57215,7 +57215,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K781" t="inlineStr">
@@ -57290,7 +57290,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K782" t="inlineStr">
@@ -57574,7 +57574,7 @@
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K786" t="inlineStr">
@@ -57870,7 +57870,7 @@
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K790" t="inlineStr">
@@ -58166,7 +58166,7 @@
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K794" t="inlineStr">
@@ -58969,7 +58969,7 @@
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K805" t="inlineStr">
@@ -59123,7 +59123,7 @@
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K807" t="inlineStr">
@@ -59632,7 +59632,7 @@
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K814" t="inlineStr">
@@ -59770,7 +59770,7 @@
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K816" t="inlineStr">
@@ -60697,7 +60697,7 @@
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K829" t="inlineStr">
@@ -60847,7 +60847,7 @@
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K831" t="inlineStr">
@@ -60977,7 +60977,7 @@
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K833" t="inlineStr">
@@ -61269,7 +61269,7 @@
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K837" t="inlineStr">
@@ -61634,7 +61634,7 @@
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K842" t="inlineStr">
@@ -61713,7 +61713,7 @@
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K843" t="inlineStr">
@@ -62155,7 +62155,7 @@
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K849" t="inlineStr">
@@ -62230,7 +62230,7 @@
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K850" t="inlineStr">
@@ -62590,7 +62590,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K855" t="inlineStr">
@@ -63980,7 +63980,7 @@
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K874" t="inlineStr">
@@ -64130,7 +64130,7 @@
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K876" t="inlineStr">
@@ -64564,7 +64564,7 @@
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
@@ -65516,7 +65516,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
@@ -65646,7 +65646,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
@@ -65872,7 +65872,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
@@ -67041,7 +67041,7 @@
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
